--- a/biology/Médecine/Groupe_hospitalier_Nord-Essonne/Groupe_hospitalier_Nord-Essonne.xlsx
+++ b/biology/Médecine/Groupe_hospitalier_Nord-Essonne/Groupe_hospitalier_Nord-Essonne.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F4"/>
+  <dimension ref="A1:H6"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">
 Le Groupe hospitalier Nord-Essonne (GHNE) est un groupe d'hôpitaux du nord de l'Essonne, formé autour de son site principal, l'hôpital Paris-Saclay situé sur la commune d'Orsay.
@@ -512,9 +524,11 @@
           <t>Historique</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Le 29 mars 2024, le Groupe hospitalier Nord-Essonne (GHNE) réceptionne son nouveau site ultramoderne de 49 000 m2 sur le campus universitaire Paris-Saclay à Orsay, après trois ans de travaux pour un investissement public de 245 millions d’euros[1],[2]. Avec ses 480 lits, le nouvel hôpital Paris-Saclay doit remplacer l'actuel hôpital d'Orsay, situé dans la vallée, ainsi qu'en partie, les hôpitaux de Longjumeau et de Juvisy-sur-Orge dès le 3 juin[3].
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Le 29 mars 2024, le Groupe hospitalier Nord-Essonne (GHNE) réceptionne son nouveau site ultramoderne de 49 000 m2 sur le campus universitaire Paris-Saclay à Orsay, après trois ans de travaux pour un investissement public de 245 millions d’euros,. Avec ses 480 lits, le nouvel hôpital Paris-Saclay doit remplacer l'actuel hôpital d'Orsay, situé dans la vallée, ainsi qu'en partie, les hôpitaux de Longjumeau et de Juvisy-sur-Orge dès le 3 juin.
 </t>
         </is>
       </c>
@@ -545,14 +559,88 @@
       </c>
       <c r="F4" t="inlineStr">
         <is>
-          <t>Paris-Saclay
-La construction d'un hôpital unique implanté au plateau de Saclay regroupant les 3 sites actuels est en projet[4]. En mars 2020, Eiffage a été retenu comme chef de groupement, avec une architecture réalisée par l’agence SCAU[5]. Initialement prévue au printemps 2024, la mise en service est finalement prévue pour le 3 juin 2024[6],[2].
-Longjumeau
-L'hôpital de Lonjumeau sera transformé dès juillet 2024 en hôpital de proximité spécialisé sur les maladies chroniques et la prise en charge des personnes âgées[7].
-Orsay
-Juvisy-sur-Orge
-Dès l'ouverture du nouvel hôpital à Orsay, les services d’urgence, de soins de suite et réadaptation ainsi que de soins palliatifs de l'hôpital de Juvisy-sur-Orge devront déménager sur le site de Longjumeau, qui sera transformé en hôpital de proximité. Une offre de soins d'urgence, un service d’imagerie ainsi qu'un SMUR doivent tout de même être maintenus à Juvisy au sein du site reconverti via à un partenariat public-privé avec les cliniques Inicea du groupe Korian[8],[7].
-Bures-sur-Yvette</t>
+          <t>Paris-Saclay</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t xml:space="preserve">La construction d'un hôpital unique implanté au plateau de Saclay regroupant les 3 sites actuels est en projet. En mars 2020, Eiffage a été retenu comme chef de groupement, avec une architecture réalisée par l’agence SCAU. Initialement prévue au printemps 2024, la mise en service est finalement prévue pour le 3 juin 2024,.
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="1" t="n">
+        <v>3</v>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>Groupe_hospitalier_Nord-Essonne</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>Portail:Médecine/Articles liés</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Groupe_hospitalier_Nord-Essonne</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>Sites</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>Longjumeau</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
+        <is>
+          <t xml:space="preserve">L'hôpital de Lonjumeau sera transformé dès juillet 2024 en hôpital de proximité spécialisé sur les maladies chroniques et la prise en charge des personnes âgées.
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="1" t="n">
+        <v>4</v>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>Groupe_hospitalier_Nord-Essonne</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>Portail:Médecine/Articles liés</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Groupe_hospitalier_Nord-Essonne</t>
+        </is>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
+          <t>Sites</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>Juvisy-sur-Orge</t>
+        </is>
+      </c>
+      <c r="G6" t="inlineStr"/>
+      <c r="H6" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Dès l'ouverture du nouvel hôpital à Orsay, les services d’urgence, de soins de suite et réadaptation ainsi que de soins palliatifs de l'hôpital de Juvisy-sur-Orge devront déménager sur le site de Longjumeau, qui sera transformé en hôpital de proximité. Une offre de soins d'urgence, un service d’imagerie ainsi qu'un SMUR doivent tout de même être maintenus à Juvisy au sein du site reconverti via à un partenariat public-privé avec les cliniques Inicea du groupe Korian,.
+</t>
         </is>
       </c>
     </row>
